--- a/biology/Zoologie/Refuge_d'oiseaux_migrateurs_de_Betchouane/Refuge_d'oiseaux_migrateurs_de_Betchouane.xlsx
+++ b/biology/Zoologie/Refuge_d'oiseaux_migrateurs_de_Betchouane/Refuge_d'oiseaux_migrateurs_de_Betchouane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Refuge_d%27oiseaux_migrateurs_de_Betchouane</t>
+          <t>Refuge_d'oiseaux_migrateurs_de_Betchouane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le refuge d'oiseaux migrateurs de Betchouane est une aire protégée du Canada et l'un des 28 refuges d'oiseaux migrateurs situé dans la province de Québec. Ce refuge a pour mission de protéger un site de nidification important pour l'Eider à duvet et pour plusieurs autres oiseaux marins. Il est situé dans la Réserve de parc national de l'Archipel-de-Mingan [3] .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le refuge d'oiseaux migrateurs de Betchouane est une aire protégée du Canada et l'un des 28 refuges d'oiseaux migrateurs situé dans la province de Québec. Ce refuge a pour mission de protéger un site de nidification important pour l'Eider à duvet et pour plusieurs autres oiseaux marins. Il est situé dans la Réserve de parc national de l'Archipel-de-Mingan  .
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Refuge_d%27oiseaux_migrateurs_de_Betchouane</t>
+          <t>Refuge_d'oiseaux_migrateurs_de_Betchouane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du refuge d'oiseaux migrateurs de Betchouane provient du nom qui avait été donné à l'île à la Chasse dans l'archipel de Mingan. Bien que les deux noms aient été utilisés en concurrence, il fut décidé en 1979 de lui donner le nom d'île à la Chasse et d'utiliser le nom des Betchouanes à l'archipel. Le terme Betchouane provient du nom montagnais de l'île, Uepetshuan, qui signifie « où le courant est fort dans les deux sens »[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du refuge d'oiseaux migrateurs de Betchouane provient du nom qui avait été donné à l'île à la Chasse dans l'archipel de Mingan. Bien que les deux noms aient été utilisés en concurrence, il fut décidé en 1979 de lui donner le nom d'île à la Chasse et d'utiliser le nom des Betchouanes à l'archipel. Le terme Betchouane provient du nom montagnais de l'île, Uepetshuan, qui signifie « où le courant est fort dans les deux sens »,.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Refuge_d%27oiseaux_migrateurs_de_Betchouane</t>
+          <t>Refuge_d'oiseaux_migrateurs_de_Betchouane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le refuge d'oiseaux est situé dans l'est du Québec, au nord du golfe du Saint-Laurent à environ 25 km à l'est de Havre-Saint-Pierre. Le refuge ne comprend que deux îles: l'île Innu et l'île à Calculot des Betchouanes, qui font partie de l'archipel de Mingan. Le territoire du refuge est compris dans la municipalité de Havre-Saint-Pierre, elle-même située dans la municipalité régionale de comté de la Minganie et la région de la Côte-Nord. Le refuge a une superficie de 435 ha sont  35 ha sont situés en milieu terrestre et 400 ha em milieu marin[6].
-Le territoire terrestre du refuge (34,5 ha), est inclus dans la réserve de parc national de l'Archipel-de-Mingan. Le refuge regroupe aussi 3 habitats fauniques, soit les colonies d'oiseaux situées sur une île ou une presqu'île du Refuge Betchouane, l'Îlot (213) (1,41 ha), du Refuge des Betchouanes (Île à Calculot) (213) (9,58 ha) et du Refuge des Betchouanes (Île Innu) (213) (28,06 ha)[7]. Finalement le territoire du refuge compose l'entièreté de la zone importante pour la conservation des oiseaux (ZICO) Betchouane.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le refuge d'oiseaux est situé dans l'est du Québec, au nord du golfe du Saint-Laurent à environ 25 km à l'est de Havre-Saint-Pierre. Le refuge ne comprend que deux îles: l'île Innu et l'île à Calculot des Betchouanes, qui font partie de l'archipel de Mingan. Le territoire du refuge est compris dans la municipalité de Havre-Saint-Pierre, elle-même située dans la municipalité régionale de comté de la Minganie et la région de la Côte-Nord. Le refuge a une superficie de 435 ha sont  35 ha sont situés en milieu terrestre et 400 ha em milieu marin.
+Le territoire terrestre du refuge (34,5 ha), est inclus dans la réserve de parc national de l'Archipel-de-Mingan. Le refuge regroupe aussi 3 habitats fauniques, soit les colonies d'oiseaux situées sur une île ou une presqu'île du Refuge Betchouane, l'Îlot (213) (1,41 ha), du Refuge des Betchouanes (Île à Calculot) (213) (9,58 ha) et du Refuge des Betchouanes (Île Innu) (213) (28,06 ha). Finalement le territoire du refuge compose l'entièreté de la zone importante pour la conservation des oiseaux (ZICO) Betchouane.
 </t>
         </is>
       </c>
